--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="2925"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="2280"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I8"/>
+  <oleSize ref="A1:I6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>firstname</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>srikar021@gamil.com</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>MY DASHBOARD</t>
+  </si>
+  <si>
+    <t>srikar011@gamil.com</t>
   </si>
 </sst>
 </file>
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,9 +431,10 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +453,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -463,8 +476,11 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -475,13 +491,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -495,40 +514,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="2280"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="2280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I6"/>
+  <oleSize ref="A1:L6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>firstname</t>
   </si>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>srikar011@gamil.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN OR CREATE AN ACCOUNT
+</t>
   </si>
 </sst>
 </file>
@@ -119,9 +123,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -516,15 +523,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -549,15 +556,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -75,7 +75,7 @@
     <t>srikar011@gamil.com</t>
   </si>
   <si>
-    <t xml:space="preserve">LOGIN OR CREATE AN ACCOUNT
+    <t xml:space="preserve">MY DASHBOARD
 </t>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="2280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15480" windowHeight="2280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L6"/>
+  <oleSize ref="A1:K5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>firstname</t>
   </si>
@@ -63,20 +63,17 @@
     <t>Indraganti</t>
   </si>
   <si>
-    <t>srikar021@gamil.com</t>
-  </si>
-  <si>
     <t>assert</t>
   </si>
   <si>
     <t>MY DASHBOARD</t>
-  </si>
-  <si>
-    <t>srikar011@gamil.com</t>
   </si>
   <si>
     <t xml:space="preserve">MY DASHBOARD
 </t>
+  </si>
+  <si>
+    <t>srikar01102@gamil.com</t>
   </si>
 </sst>
 </file>
@@ -427,7 +424,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -484,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -507,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +521,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,18 +539,18 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
@@ -564,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15480" windowHeight="2280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:K5"/>
+  <oleSize ref="A1:J19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>firstname</t>
   </si>
@@ -73,7 +73,10 @@
 </t>
   </si>
   <si>
-    <t>srikar01102@gamil.com</t>
+    <t>srikar171997@gamil.com</t>
+  </si>
+  <si>
+    <t>srikar171998@gamil.com</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -495,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -521,7 +524,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
